--- a/Dossier Stage/Gestion projet Phase 0,8 option 1/Gestion de projet Projet Phaselec PHASE 0,8 option 1.xlsx
+++ b/Dossier Stage/Gestion projet Phase 0,8 option 1/Gestion de projet Projet Phaselec PHASE 0,8 option 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="recensement des tâches" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t xml:space="preserve">N°</t>
   </si>
@@ -69,32 +69,7 @@
     <t xml:space="preserve">Création de l’entité COMPTE dans Microsoft Common Data Service lié avec la création du CLIENT dans Batigest</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Création d’une entité dans </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Microsoft Common Data Service </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> liée avec Batigest</t>
-    </r>
+    <t xml:space="preserve">Création d’une entité dans Microsoft Common Data Service  liée avec Batigest</t>
   </si>
   <si>
     <t xml:space="preserve">L’entité Microsoft Common Data Service est bien lié avec Batigest </t>
@@ -109,26 +84,10 @@
     <t xml:space="preserve">Lié les données de Batigest dans l’entité crée dans Microsoft Common Data Service  </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Les données sont lisible dans </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Microsoft Common Data Service  </t>
-    </r>
+    <t xml:space="preserve">Les données sont lisible dans Microsoft Common Data Service  </t>
   </si>
   <si>
-    <t xml:space="preserve">L’entité est visualisable avec ses données dans Microsoft Common Data Service</t>
+    <t xml:space="preserve">La table COMPTE est visualisable avec ses données dans Microsoft Common Data Service</t>
   </si>
   <si>
     <t xml:space="preserve">Test de l'application pour Desktop et Mobile</t>
@@ -211,9 +170,6 @@
   <si>
     <t xml:space="preserve">terminer</t>
   </si>
-  <si>
-    <t xml:space="preserve">Terminer</t>
-  </si>
 </sst>
 </file>
 
@@ -225,7 +181,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_)\ [$€-1]_);\(#,##0.00&quot;) &quot;[$€-1]_);_(* \-??_)\ [$€-1]_);_(@"/>
     <numFmt numFmtId="167" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -304,12 +260,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -467,7 +417,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -475,7 +425,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -487,11 +437,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,16 +524,16 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="148.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="96.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="84.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="70.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="80.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4730,18 +4680,18 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="105.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32.42"/>
@@ -4921,25 +4871,17 @@
       <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20" t="n">
+      <c r="E10" s="19"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="20" t="e">
         <f aca="false">+F10/(F10+G10)</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="21" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="21" t="e">
         <f aca="false">AVERAGE(H10:H10)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K10" s="22"/>
     </row>
